--- a/data/raw/pigment_information.xlsx
+++ b/data/raw/pigment_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/GitHub/Insight_Project/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2316171D-64DD-0341-A3DC-01EAD9B0E321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254234B-73D8-714F-95E5-73FCD11FEE08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="900" windowWidth="27640" windowHeight="16940" xr2:uid="{454CB4F4-6577-A848-BB75-1FAA54F80796}"/>
+    <workbookView xWindow="13580" yWindow="4620" windowWidth="27640" windowHeight="16940" xr2:uid="{454CB4F4-6577-A848-BB75-1FAA54F80796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
   <si>
     <t>color_name</t>
   </si>
@@ -57,17 +57,283 @@
     <t>Hansa Yellow Light</t>
   </si>
   <si>
-    <t>Danel Smith</t>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>transparency</t>
+  </si>
+  <si>
+    <t>staining</t>
+  </si>
+  <si>
+    <t>granulation</t>
+  </si>
+  <si>
+    <t>lightfastness</t>
+  </si>
+  <si>
+    <t>py97</t>
+  </si>
+  <si>
+    <t>Quinacridone Gold</t>
+  </si>
+  <si>
+    <t>Daniel Smith</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>po48</t>
+  </si>
+  <si>
+    <t>py150</t>
+  </si>
+  <si>
+    <t>yellow_orange</t>
+  </si>
+  <si>
+    <t>primary_con_mix</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>Cadmium Orange Hie</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>py53</t>
+  </si>
+  <si>
+    <t>po73</t>
+  </si>
+  <si>
+    <t>py83</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>image_location</t>
+  </si>
+  <si>
+    <t>image_number</t>
+  </si>
+  <si>
+    <t>50_50_hansa_scarlett</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>semi-transparent</t>
+  </si>
+  <si>
+    <t>semi-opaque</t>
+  </si>
+  <si>
+    <t>low staining</t>
+  </si>
+  <si>
+    <t>Low Staining</t>
+  </si>
+  <si>
+    <t>Non Granulating</t>
+  </si>
+  <si>
+    <t>Granulating</t>
+  </si>
+  <si>
+    <t>Pyrrol Scarlet</t>
+  </si>
+  <si>
+    <t>pr255</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>medium staining</t>
+  </si>
+  <si>
+    <t>non Granulating</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>75_pyrrol_75_hansa</t>
+  </si>
+  <si>
+    <t>red_orange</t>
+  </si>
+  <si>
+    <t>pyrrol orange</t>
+  </si>
+  <si>
+    <t>daniel Smith</t>
+  </si>
+  <si>
+    <t>pyrrol crimson</t>
+  </si>
+  <si>
+    <t>pr264</t>
+  </si>
+  <si>
+    <t>cool_red</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/hansa-yellow-medium-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/quinacridone-gold-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/cadmium-orange-hue-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/pyrrol-scarlet-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/pyrrol-orange-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/pyrrol-crimson-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Quinacridone Rose</t>
+  </si>
+  <si>
+    <t>pv19</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/quinacridone-rose-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Mayan Violet</t>
+  </si>
+  <si>
+    <t>pv58</t>
+  </si>
+  <si>
+    <t>warm pink</t>
+  </si>
+  <si>
+    <t>cool_pink</t>
+  </si>
+  <si>
+    <t>granulating</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/mayan-violet-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>mixture</t>
+  </si>
+  <si>
+    <t>50_50_Hansa_Pyrrol_Scarlett</t>
+  </si>
+  <si>
+    <t>75_25_Pyrrol_Scarlet_Hansa_Yellow_Medium</t>
+  </si>
+  <si>
+    <t>75_Crimson_25_Ultramarine_Blue</t>
+  </si>
+  <si>
+    <t>pr274</t>
+  </si>
+  <si>
+    <t>Imperial Purple</t>
+  </si>
+  <si>
+    <t>pb29</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>50_ultrablue_50_quin_rose</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/imperial-purple-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>French Ultramarine</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>warm blue</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/french-ultramarine-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Pthalo Blue (GS)</t>
+  </si>
+  <si>
+    <t>cool blue</t>
+  </si>
+  <si>
+    <t>high staining</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/phthalo-blue-gs-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Pthalo Turquoise</t>
+  </si>
+  <si>
+    <t>pb15:3</t>
+  </si>
+  <si>
+    <t>pg36</t>
+  </si>
+  <si>
+    <t>blue-green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,13 +356,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,15 +679,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80E0460-29B7-C140-A401-3C8E9F58979A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,36 +695,893 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{F631FBEA-8656-0B46-B0F6-912402DC984C}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{5EF94B25-EFFF-2743-A2BF-412CCE03471E}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{EA04427F-5258-D945-8CBE-CFE01ECF6B0E}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{0D7A6C1C-1F73-2B43-BE4B-B90422E38420}"/>
+    <hyperlink ref="Q8" r:id="rId5" xr:uid="{413E62FF-3C42-1F4A-AD6F-57F7229D2B91}"/>
+    <hyperlink ref="Q9" r:id="rId6" xr:uid="{4B8183FD-283F-3D47-AF59-2B339BD9ED52}"/>
+    <hyperlink ref="Q10" r:id="rId7" xr:uid="{275E20A1-6E69-4E4B-B756-675006B014C4}"/>
+    <hyperlink ref="Q11" r:id="rId8" xr:uid="{4947F233-9E73-6946-B26F-7B9E9AD7D2DE}"/>
+    <hyperlink ref="Q13" r:id="rId9" xr:uid="{F9135CC9-6083-7847-8825-72F182BA08A0}"/>
+    <hyperlink ref="Q15" r:id="rId10" xr:uid="{793B3CF6-BAC1-E443-96EB-02FBEAACECAA}"/>
+    <hyperlink ref="Q16" r:id="rId11" xr:uid="{63370A43-2A4B-D444-A39E-E0C20D467935}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/raw/pigment_information.xlsx
+++ b/data/raw/pigment_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/GitHub/Insight_Project/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254234B-73D8-714F-95E5-73FCD11FEE08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39412B3-FD39-1A4C-BCDC-0F7E8200C5B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="4620" windowWidth="27640" windowHeight="16940" xr2:uid="{454CB4F4-6577-A848-BB75-1FAA54F80796}"/>
+    <workbookView xWindow="16360" yWindow="520" windowWidth="19200" windowHeight="16940" xr2:uid="{454CB4F4-6577-A848-BB75-1FAA54F80796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="140">
   <si>
     <t>color_name</t>
   </si>
@@ -316,6 +316,135 @@
   </si>
   <si>
     <t>blue-green</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/phthalo-turquoise-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Pthalo Green (YS)</t>
+  </si>
+  <si>
+    <t>pb 36</t>
+  </si>
+  <si>
+    <t>warm green</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/phthalo-green-yellow-shade-5ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Pthalo Green (BS)</t>
+  </si>
+  <si>
+    <t>pg7</t>
+  </si>
+  <si>
+    <t>cool green</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/phthalo-green-bs-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Pthalo Yellow Green</t>
+  </si>
+  <si>
+    <t>pg 36</t>
+  </si>
+  <si>
+    <t>py 3</t>
+  </si>
+  <si>
+    <t>warm yellow green</t>
+  </si>
+  <si>
+    <t>very Good</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/phthalo-yellow-green-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Hooker's Green</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>pig_4</t>
+  </si>
+  <si>
+    <t>cool earth green</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/hookers-green-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Sap Green</t>
+  </si>
+  <si>
+    <t>warm earth green</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/sap-green-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Burnt Sienna</t>
+  </si>
+  <si>
+    <t>pbr7</t>
+  </si>
+  <si>
+    <t>warn earth brown</t>
+  </si>
+  <si>
+    <t>non-staining</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/burnt-sienna-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Raw Umber Violet</t>
+  </si>
+  <si>
+    <t>cool earth brown</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/raw-umber-violet-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>Payne's Gray</t>
+  </si>
+  <si>
+    <t>pbk9</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/paynes-gray-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>neutral tint</t>
+  </si>
+  <si>
+    <t>pbk6</t>
+  </si>
+  <si>
+    <t>pb15</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/neutral-tint-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
+  </si>
+  <si>
+    <t>lamp black</t>
+  </si>
+  <si>
+    <t>pk6</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>http://danielsmith.com/lamp-black-15ml-tube-daniel-smith-extra-fine-watercolor/</t>
   </si>
 </sst>
 </file>
@@ -679,15 +808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80E0460-29B7-C140-A401-3C8E9F58979A}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,28 +848,31 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -771,29 +903,32 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -810,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -824,29 +959,32 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -877,29 +1015,32 @@
       <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -930,29 +1071,32 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -983,29 +1127,32 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>49</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1036,29 +1183,32 @@
       <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>48</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1089,29 +1239,32 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>46</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>49</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>7</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1142,29 +1295,32 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>57</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>47</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>8</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1195,29 +1351,32 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>48</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>9</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1248,29 +1407,32 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>39</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>71</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>72</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1301,11 +1463,11 @@
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" t="s">
-        <v>84</v>
       </c>
       <c r="M12" t="s">
         <v>84</v>
@@ -1316,14 +1478,17 @@
       <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1354,29 +1519,32 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>81</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>39</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>48</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1407,11 +1575,11 @@
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
       </c>
       <c r="M14" t="s">
         <v>84</v>
@@ -1422,11 +1590,14 @@
       <c r="O14" t="s">
         <v>84</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1457,29 +1628,32 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>87</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>46</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>71</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>14</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1510,29 +1684,32 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>90</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>91</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>47</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>15</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1542,6 +1719,9 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
@@ -1560,26 +1740,615 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>96</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27">
+        <v>26</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{F631FBEA-8656-0B46-B0F6-912402DC984C}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{5EF94B25-EFFF-2743-A2BF-412CCE03471E}"/>
-    <hyperlink ref="Q4" r:id="rId3" xr:uid="{EA04427F-5258-D945-8CBE-CFE01ECF6B0E}"/>
-    <hyperlink ref="Q6" r:id="rId4" xr:uid="{0D7A6C1C-1F73-2B43-BE4B-B90422E38420}"/>
-    <hyperlink ref="Q8" r:id="rId5" xr:uid="{413E62FF-3C42-1F4A-AD6F-57F7229D2B91}"/>
-    <hyperlink ref="Q9" r:id="rId6" xr:uid="{4B8183FD-283F-3D47-AF59-2B339BD9ED52}"/>
-    <hyperlink ref="Q10" r:id="rId7" xr:uid="{275E20A1-6E69-4E4B-B756-675006B014C4}"/>
-    <hyperlink ref="Q11" r:id="rId8" xr:uid="{4947F233-9E73-6946-B26F-7B9E9AD7D2DE}"/>
-    <hyperlink ref="Q13" r:id="rId9" xr:uid="{F9135CC9-6083-7847-8825-72F182BA08A0}"/>
-    <hyperlink ref="Q15" r:id="rId10" xr:uid="{793B3CF6-BAC1-E443-96EB-02FBEAACECAA}"/>
-    <hyperlink ref="Q16" r:id="rId11" xr:uid="{63370A43-2A4B-D444-A39E-E0C20D467935}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{F631FBEA-8656-0B46-B0F6-912402DC984C}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{5EF94B25-EFFF-2743-A2BF-412CCE03471E}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{EA04427F-5258-D945-8CBE-CFE01ECF6B0E}"/>
+    <hyperlink ref="R6" r:id="rId4" xr:uid="{0D7A6C1C-1F73-2B43-BE4B-B90422E38420}"/>
+    <hyperlink ref="R8" r:id="rId5" xr:uid="{413E62FF-3C42-1F4A-AD6F-57F7229D2B91}"/>
+    <hyperlink ref="R9" r:id="rId6" xr:uid="{4B8183FD-283F-3D47-AF59-2B339BD9ED52}"/>
+    <hyperlink ref="R10" r:id="rId7" xr:uid="{275E20A1-6E69-4E4B-B756-675006B014C4}"/>
+    <hyperlink ref="R11" r:id="rId8" xr:uid="{4947F233-9E73-6946-B26F-7B9E9AD7D2DE}"/>
+    <hyperlink ref="R13" r:id="rId9" xr:uid="{F9135CC9-6083-7847-8825-72F182BA08A0}"/>
+    <hyperlink ref="R15" r:id="rId10" xr:uid="{793B3CF6-BAC1-E443-96EB-02FBEAACECAA}"/>
+    <hyperlink ref="R16" r:id="rId11" xr:uid="{63370A43-2A4B-D444-A39E-E0C20D467935}"/>
+    <hyperlink ref="R17" r:id="rId12" xr:uid="{93FD0310-93E9-2445-A541-652081C6FA0C}"/>
+    <hyperlink ref="R18" r:id="rId13" xr:uid="{1F5ED5AA-3891-1A4C-BDA9-7C5E0353C360}"/>
+    <hyperlink ref="R19" r:id="rId14" xr:uid="{4E4234EF-8A80-464B-992C-1B45AC54E75D}"/>
+    <hyperlink ref="R20" r:id="rId15" xr:uid="{E819386C-E15B-BF4B-96EB-F30E7C19C08D}"/>
+    <hyperlink ref="R21" r:id="rId16" xr:uid="{3DE4CF0E-EEB3-8A45-A2E0-3375B1584D2D}"/>
+    <hyperlink ref="R22" r:id="rId17" xr:uid="{D4891783-38F6-DF41-BBA4-B0DD2F80FF7B}"/>
+    <hyperlink ref="R23" r:id="rId18" xr:uid="{72590BB8-9556-AA44-9A85-CCF392B9D507}"/>
+    <hyperlink ref="R24" r:id="rId19" xr:uid="{54FCC68C-E95A-9344-9567-B281C0155303}"/>
+    <hyperlink ref="R25" r:id="rId20" xr:uid="{CF2066D1-E564-0441-87C9-8119A9AE9A34}"/>
+    <hyperlink ref="R26" r:id="rId21" xr:uid="{903C5666-B34A-C849-963B-C7000B88403E}"/>
+    <hyperlink ref="R27" r:id="rId22" xr:uid="{DCE913A2-CB10-7948-BCF0-C6AC407E3BF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
